--- a/data/trans_bre/P52_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,24</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,74</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>234,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-18,91%</t>
+          <t>-5,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>37,47%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 52,33</t>
+          <t>-3,44; 22,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 14,14</t>
+          <t>-20,48; 17,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 42,76</t>
+          <t>-10,14; 13,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-68,89; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 28,86</t>
+          <t>-65,45; 207,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 392,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,37</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,77%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,02%</t>
+          <t>53,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>-37,76%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 16,51</t>
+          <t>-13,06; 15,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 16,45</t>
+          <t>-8,99; 19,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 23,03</t>
+          <t>-48,61; 12,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 48,95</t>
+          <t>-60,16; 304,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 48,25</t>
+          <t>-54,39; 465,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,2; 108,71</t>
+          <t>-91,17; 300,09</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,37</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>-6,63%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 26,47</t>
+          <t>-12,26; 6,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 22,44</t>
+          <t>-12,31; 12,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 42,36</t>
+          <t>-15,04; 9,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 61,21</t>
+          <t>-77,33; 323,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 42,38</t>
+          <t>-50,83; 147,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 147,66</t>
+          <t>-63,92; 149,22</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,29</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,48%</t>
+          <t>217,15%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 38,56</t>
+          <t>-6,81; 10,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 23,2</t>
+          <t>-2,84; 15,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 44,71</t>
+          <t>2,78; 19,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 125,05</t>
+          <t>-57,48; 327,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 51,32</t>
+          <t>-28,03; 369,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 187,59</t>
+          <t>12,59; 1191,07</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>-25,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,0%</t>
+          <t>-36,18%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 32,89</t>
+          <t>-14,95; 6,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 32,31</t>
+          <t>-11,5; 14,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-35,93; 33,98</t>
+          <t>-15,25; 5,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 67,15</t>
+          <t>-83,02; 118,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 56,1</t>
+          <t>-65,27; 208,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 96,8</t>
+          <t>-87,98; 106,46</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-25,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-56,12</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-68,93%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1047,22 +1047,22 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-94,66; 2,35</t>
+          <t>-11,64; 10,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 11,84</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-96,16; 0,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 14,38</t>
+          <t>-3,96; 5,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 3,66</t>
+          <t>-2,6; 8,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 22,54</t>
+          <t>-10,53; 5,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 33,35</t>
+          <t>-35,85; 84,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 5,94</t>
+          <t>-19,06; 78,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 65,2</t>
+          <t>-56,15; 78,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P52_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,11</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>234,68%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-5,08%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>37,47%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.77903789599951</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2292590234087399</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>13.04295357993133</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>3.227808918120297</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.004696687081135464</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.8044903005643829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 22,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,48; 17,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,14; 13,73</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-65,45; 207,84</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.665745677688091</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-37.67156632294625</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.76849792013109</v>
+      </c>
+      <c r="F5" s="6" t="inlineStr"/>
+      <c r="G5" s="6" t="n">
+        <v>-0.52937770316678</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>30.38361221298449</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>35.53854627168621</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>46.35729186190437</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="n">
+        <v>1.4310256884896</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-9,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,48%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>53,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-37,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,06; 15,7</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,99; 19,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-48,61; 12,73</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-60,16; 304,88</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-54,39; 465,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-91,17; 300,09</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.394451400665327</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-11.61943805813025</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-15.65069728778145</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1862603007883987</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2238086083638393</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2929127976467156</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-10,81%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,78%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-6,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-22.57211803825601</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-51.01078585965172</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-63.20957765778849</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.7500055803237315</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.7095304501191814</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8458325517070091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,26; 6,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,31; 12,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,04; 9,65</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-77,33; 323,29</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-50,83; 147,54</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-63,92; 149,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.63485956018462</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.96409919187425</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>25.46739131111696</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.674459529107468</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.9776837544117205</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.427755434060418</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +767,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,77</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>26,93%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>73,73%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>217,15%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.08543937101749277</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>18.74023420858981</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>31.49456500492346</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.01170480290549918</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.3171130793175941</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.7863466533884201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 10,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 15,92</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 19,23</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-57,48; 327,47</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-28,03; 369,33</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>12,59; 1191,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.15686185553519</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.49301203545329</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.650197772666392</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.7287218227826913</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1451902923325108</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.04736437820525113</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.614512774527775</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>46.2722585385759</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>60.17871785524645</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3.810393238640988</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.346706590342074</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.105917857537908</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,34</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-25,52%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,1%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-36,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,95; 6,67</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,5; 14,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-15,25; 5,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-83,02; 118,66</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-65,27; 208,53</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-87,98; 106,46</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.566897268760874</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.827332861807378</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>36.29673194262323</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.37397028496731</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1362886149123644</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.448893523228111</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.256584175746538</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-23.89869299285047</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.371574545421486</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.5381336308403238</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3440488785013751</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.01680123884088135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,64; 10,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,84</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.7826689761586</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>37.38996609896137</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>60.64333289460547</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>3.881357724957033</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.303033139732679</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>8.774577083332614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +931,213 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>22,38%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.542325771000822</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.292751813947826</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-32.66293910526608</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.2136170249827906</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.06199545263850795</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.4300879207171708</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 5,1</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 8,03</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 5,51</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-35,85; 84,22</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-19,06; 78,95</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-56,15; 78,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.57769685003749</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-39.25007882582571</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-72.05018538803488</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.8282337622061647</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.4847892459188785</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8516511659761</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.512341544793218</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>40.49221931900014</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>14.8132067505378</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.265779070537271</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.8105755995964805</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.2014060337418418</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="inlineStr"/>
+      <c r="F19" s="6" t="inlineStr"/>
+      <c r="G19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.4101803072970034</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.07642787164225</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>8.358497678392791</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.04648183036249671</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.03699165015561198</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.2052016355595065</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.490964768743976</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-13.87095687315816</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-15.10709726596321</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.4369812755667871</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.2021847958765186</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.2747857436949523</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.088568059844012</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>18.15655011273967</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>25.76152613810718</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.8209911908923836</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.415645168891823</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.8939319250476442</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1161,15 +1146,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
